--- a/EvaluationResults/RQ2+RQ3/2-Simple-gemini-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/2-Simple-gemini-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B2910-0D77-1645-8A10-1B7E213E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FCE00F-FA42-ED49-9957-D36C1DFA4997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -5769,7 +5769,8 @@
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
+        <f>H104-I104</f>
+        <v>2</v>
       </c>
       <c r="K104" s="6">
         <v>0</v>
@@ -6085,7 +6086,7 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K112" s="4">
         <f>SUM(K2:K111)</f>
@@ -6117,7 +6118,7 @@
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.21568627450980393</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="18" customHeight="1">
@@ -6126,7 +6127,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.29333333333333328</v>
+        <v>0.29203539823008845</v>
       </c>
     </row>
     <row r="119" spans="9:10" ht="18" customHeight="1">
@@ -6135,7 +6136,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.92795650203896696</v>
+        <v>0.92753623188405798</v>
       </c>
     </row>
   </sheetData>
